--- a/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Agent Aux Codes (2).xlsx
@@ -52,6 +52,15 @@
     <t xml:space="preserve">19/03/2021 02:55:24</t>
   </si>
   <si>
+    <t xml:space="preserve">Dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/08/2021 17:49:37</t>
+  </si>
+  <si>
     <t xml:space="preserve">dara</t>
   </si>
   <si>
@@ -74,15 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">24/03/2021 01:01:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AuxCodesUpdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/07/2021 09:44:59</t>
   </si>
   <si>
     <t xml:space="preserve">8 - Callback</t>
@@ -262,7 +262,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -274,47 +274,47 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
